--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104526.6320220639</v>
+        <v>-109814.7475168361</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11699089.85785704</v>
+        <v>11697319.91968578</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>336.4457788087619</v>
+        <v>100.0515532616773</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226354</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968102</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -865,19 +865,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>255.9116134808057</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914583</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>193.2274290695641</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>158.2262687079107</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968102</v>
+        <v>50.64353720722395</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.3605434047559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.03638470914574</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.7111237523114</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>241.3816385388821</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>115.6099017099845</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>55.08832625351683</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.7156920301318</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.76434094713346</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.27781148189473</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>231.7594287195349</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,7 +1613,7 @@
         <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.64718169059</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372781</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.35225270240927</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993866</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177839</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246575</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442477</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.4932009668169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338894</v>
+        <v>36.76139877200656</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456087</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901679</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>105.4161904602793</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541618</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838887</v>
+        <v>24.17382596574976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828899</v>
+        <v>52.06849973564988</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431732</v>
+        <v>70.5760187316782</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459972</v>
+        <v>55.72314698196061</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643945</v>
+        <v>41.29686219380034</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931856</v>
+        <v>41.22330424667945</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908583</v>
+        <v>42.97275566644672</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147796</v>
+        <v>53.79159358883885</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805001</v>
+        <v>41.14384575541089</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922194</v>
+        <v>18.98356133658282</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367785</v>
+        <v>9.882059701038742</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920517</v>
+        <v>88.00800320656606</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1120.585686359213</v>
+        <v>861.211952456568</v>
       </c>
       <c r="C2" t="n">
-        <v>1120.585686359213</v>
+        <v>861.211952456568</v>
       </c>
       <c r="D2" t="n">
-        <v>1120.585686359213</v>
+        <v>475.7708236732358</v>
       </c>
       <c r="E2" t="n">
-        <v>1120.585686359213</v>
+        <v>475.7708236732358</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475496</v>
+        <v>114.5970879866879</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>607.9173797052167</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354871</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.79005602327</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.79005602327</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U2" t="n">
-        <v>1881.037326457868</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.037326457868</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.038291426156</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="X2" t="n">
-        <v>1120.585686359213</v>
+        <v>1257.702661535967</v>
       </c>
       <c r="Y2" t="n">
-        <v>1120.585686359213</v>
+        <v>861.211952456568</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628886</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284337</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144823</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245749</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875479</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.79650946646</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737748</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737748</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>585.3226407371185</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>326.8260614635773</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="V4" t="n">
-        <v>326.8260614635773</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>664.6916706187581</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="C5" t="n">
-        <v>469.51244933637</v>
+        <v>1659.585094405145</v>
       </c>
       <c r="D5" t="n">
-        <v>469.51244933637</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>95.16671432390552</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572949</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737748</v>
+        <v>1819.40960825152</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441266</v>
+        <v>1819.40960825152</v>
       </c>
       <c r="W5" t="n">
-        <v>1461.677125409554</v>
+        <v>1819.40960825152</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.677125409554</v>
+        <v>1819.40960825152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1065.186416330155</v>
+        <v>1659.585094405145</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284337</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653862</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475496</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475496</v>
+        <v>684.3416603297044</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475496</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475496</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475496</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475496</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475496</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475496</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475496</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>382.5065569196679</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>97.06776516156884</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>97.06776516156884</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475496</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475496</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475496</v>
+        <v>819.0492799304679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>600.8019744073591</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>438.5922753886333</v>
       </c>
       <c r="F8" t="n">
         <v>194.7724384806716</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.634347577648</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.635312545935</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.182707478992</v>
+        <v>835.0829844680321</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.6919983995929</v>
+        <v>438.5922753886333</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W10" t="n">
-        <v>161.6228038740554</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X10" t="n">
-        <v>161.6228038740554</v>
+        <v>596.2632623163963</v>
       </c>
       <c r="Y10" t="n">
-        <v>161.6228038740554</v>
+        <v>373.1512011330396</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1135.01579512446</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>804.2285453871984</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>459.1303820633702</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>117.7639016975672</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2589.224243848344</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2589.224243848344</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X11" t="n">
-        <v>2271.567913927594</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.0612828489756</v>
+        <v>410.9088655939297</v>
       </c>
       <c r="C13" t="n">
-        <v>270.6524400611587</v>
+        <v>312.5000228061127</v>
       </c>
       <c r="D13" t="n">
-        <v>186.8156021098674</v>
+        <v>312.5000228061127</v>
       </c>
       <c r="E13" t="n">
-        <v>123.4172779208437</v>
+        <v>228.737485811509</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>143.2078261706758</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.790056457679</v>
+        <v>936.042825624544</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.606986424697</v>
+        <v>936.042825624544</v>
       </c>
       <c r="W13" t="n">
-        <v>796.0728595020687</v>
+        <v>724.5086987019155</v>
       </c>
       <c r="X13" t="n">
-        <v>633.7888124312457</v>
+        <v>562.2246516310925</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.4730263940829</v>
+        <v>410.9088655939297</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1702.435468430417</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.056242079542</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D14" t="n">
-        <v>1067.411388442403</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.313225118575</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527721</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3095.499564294251</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2943.795236999862</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2943.795236999862</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V14" t="n">
-        <v>2673.484702849574</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2673.484702849574</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2355.828372928825</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="Y14" t="n">
-        <v>2031.13393899562</v>
+        <v>2200.782309456373</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.095209942061</v>
+        <v>366.952893159699</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542443</v>
+        <v>268.5440503718821</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029529</v>
+        <v>268.5440503718821</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083493</v>
+        <v>184.7815133772785</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675163</v>
+        <v>99.25185373644536</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>99.25185373644536</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,49 +5437,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907707</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1174.224150442779</v>
+        <v>988.147539845774</v>
       </c>
       <c r="V16" t="n">
-        <v>980.0410804097968</v>
+        <v>793.964469812792</v>
       </c>
       <c r="W16" t="n">
-        <v>768.5069534871684</v>
+        <v>793.964469812792</v>
       </c>
       <c r="X16" t="n">
-        <v>768.5069534871684</v>
+        <v>631.6804227419691</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871684</v>
+        <v>480.3646367048063</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5677,22 +5677,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924184</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.661451296041</v>
+        <v>313.661451296042</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5972,34 +5972,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662618</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
         <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508977</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2140.312152577623</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2685.624846197022</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965126</v>
+        <v>365.671367692971</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918664</v>
+        <v>309.3853606404856</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237458</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431912</v>
+        <v>86.73045008374187</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.4160927170958</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>501.1958531658785</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>687.4874315041425</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103346</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1464.164095450177</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250175</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395514</v>
+        <v>835.7257283273671</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000937</v>
+        <v>666.3144371400699</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124415</v>
+        <v>546.1532258045784</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584494</v>
+        <v>436.960275502747</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7017,22 +7017,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M36" t="n">
-        <v>689.8907773307967</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N36" t="n">
-        <v>1345.668748541356</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1862.189031132337</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7102,16 +7102,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411555</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
         <v>969.3241577214669</v>
@@ -7588,31 +7588,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446702</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>216.8905660381762</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140942</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837488</v>
+        <v>465.3882399439958</v>
       </c>
       <c r="N3" t="n">
-        <v>412.0456484611402</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>197.2639259747597</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>312.6161996011367</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999618</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886036</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413532</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238545</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475136</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10665,7 +10665,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>711.5734917843249</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>194.6755812809255</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.73179756374104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>20.16057067752407</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442479</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>15.21538948492226</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>93.652057140016</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.41785441121866</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.08405436138241</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>106.0899009855067</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.153637185780099e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1024436.084208246</v>
+        <v>1023533.762787606</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1024436.084208246</v>
+        <v>1023533.762787606</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915187.5078106731</v>
+        <v>915187.507810673</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>270498.267140035</v>
+      </c>
+      <c r="C2" t="n">
+        <v>270498.267140035</v>
+      </c>
+      <c r="D2" t="n">
         <v>270498.2671400351</v>
       </c>
-      <c r="C2" t="n">
-        <v>270498.2671400352</v>
-      </c>
-      <c r="D2" t="n">
-        <v>270498.2671400352</v>
-      </c>
       <c r="E2" t="n">
-        <v>239038.535136601</v>
+        <v>239038.5351366011</v>
       </c>
       <c r="F2" t="n">
-        <v>239038.535136601</v>
+        <v>239038.5351366011</v>
       </c>
       <c r="G2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="H2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400353</v>
       </c>
       <c r="I2" t="n">
         <v>270498.2671400352</v>
@@ -26338,16 +26338,16 @@
         <v>270498.2671400354</v>
       </c>
       <c r="K2" t="n">
-        <v>270498.2671400355</v>
+        <v>270498.2671400353</v>
       </c>
       <c r="L2" t="n">
+        <v>270498.2671400352</v>
+      </c>
+      <c r="M2" t="n">
         <v>270498.2671400353</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>270498.2671400352</v>
-      </c>
-      <c r="N2" t="n">
-        <v>270498.2671400351</v>
       </c>
       <c r="O2" t="n">
         <v>270498.2671400352</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062197</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
+        <v>4.547473508864641e-11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47425.32553668192</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>47425.3255366819</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728549</v>
+        <v>62456.2417753968</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26427,13 +26427,13 @@
         <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002079</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917899</v>
       </c>
       <c r="I4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178206.1902109293</v>
+        <v>-174155.5182035149</v>
       </c>
       <c r="C6" t="n">
-        <v>3998.75808092652</v>
+        <v>-296.8611694598367</v>
       </c>
       <c r="D6" t="n">
-        <v>-2593.303258795873</v>
+        <v>-10329.59248218752</v>
       </c>
       <c r="E6" t="n">
-        <v>-39067.42053749191</v>
+        <v>-39277.15208418133</v>
       </c>
       <c r="F6" t="n">
-        <v>73055.14093655261</v>
+        <v>72845.4093898631</v>
       </c>
       <c r="G6" t="n">
-        <v>4346.881296043663</v>
+        <v>4346.881296043575</v>
       </c>
       <c r="H6" t="n">
-        <v>51772.20683272552</v>
+        <v>51772.20683272577</v>
       </c>
       <c r="I6" t="n">
         <v>51772.20683272555</v>
       </c>
       <c r="J6" t="n">
-        <v>-161269.7107645597</v>
+        <v>-154753.4256099865</v>
       </c>
       <c r="K6" t="n">
-        <v>45532.43842994287</v>
+        <v>45532.43842994275</v>
       </c>
       <c r="L6" t="n">
-        <v>-9650.1505046784</v>
+        <v>-13698.98771515089</v>
       </c>
       <c r="M6" t="n">
-        <v>9571.377373102558</v>
+        <v>8519.682361914514</v>
       </c>
       <c r="N6" t="n">
-        <v>51772.20683272544</v>
+        <v>51772.2068327255</v>
       </c>
       <c r="O6" t="n">
-        <v>24004.51278995433</v>
+        <v>24004.51278995431</v>
       </c>
       <c r="P6" t="n">
-        <v>51772.20683272555</v>
+        <v>51772.20683272553</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473192</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.07831239473198</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.2816569208524</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>59.28165692085237</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
+        <v>34.70961755346406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.070302219246</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287426</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346408</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660686</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551343</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407289</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.2816569208524</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>59.28165692085237</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485811</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,16 +27382,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>76.27971527656013</v>
+        <v>312.6739408236447</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343598</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627044</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.67279035971234</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>196.0163174125346</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>234.2995332806942</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627044</v>
+        <v>124.5704364758567</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>35.14252334991474</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>227.4607133389884</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.7786745019715</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,7 +27862,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>171.3438555464399</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.18920306960163</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>116.1296172848622</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473201</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28749,25 +28749,25 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,40 +28956,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634530115</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.636002634529405</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,16 +29299,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901169</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431648</v>
@@ -29533,19 +29533,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
+      <c r="N29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L29" t="n">
-        <v>30.2722376590126</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683159835</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566483</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031192</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71446861254051</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N37" t="n">
         <v>130.3599693155844</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30405,13 +30405,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.6129845773342</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529465</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,16 +30876,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="M46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K46" t="n">
-        <v>35.71049010668865</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.83216285893884</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.467759416367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.695742434437</v>
+        <v>373.0011178946838</v>
       </c>
       <c r="N3" t="n">
-        <v>326.6735356069736</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>54.20552279552233</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>162.8911480034095</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200684275</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N6" t="n">
-        <v>543.695742434437</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246429</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696878</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257294</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
         <v>153.739970081542</v>
@@ -35820,10 +35820,10 @@
         <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488449</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565501</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724876</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907913</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>487.9795421773846</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722525</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273767</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>159.4555122371219</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.17123262269299</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>626.2013789301583</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
         <v>315.4000036905431</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873216</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37950,13 +37950,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681948</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>118.3721477934986</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
